--- a/data/major indicators.xlsx
+++ b/data/major indicators.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunne\Videos\bbs\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents2\git_new\Commercial-Banks-Stocks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF48C7C8-1DD4-4DD2-9D6D-CEA32BF582AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5A2248-6F17-4872-B558-B3826CFB5521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nabil" sheetId="1" r:id="rId1"/>
@@ -779,55 +779,55 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection sqref="A1:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1496,7 +1496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42C060B-3A45-488A-985F-0B39B08F4B88}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:G34"/>
     </sheetView>
   </sheetViews>
@@ -1535,725 +1535,725 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="30">
+      <c r="B2" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="26">
         <v>0.15490000000000001</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="26">
         <v>0.12479999999999999</v>
       </c>
-      <c r="E2" s="30">
+      <c r="E2" s="26">
         <v>0.15770000000000001</v>
       </c>
-      <c r="F2" s="30">
+      <c r="F2" s="26">
         <v>0.12529999999999999</v>
       </c>
-      <c r="G2" s="31">
+      <c r="G2" s="27">
         <v>0.10589999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="25">
         <v>23.07</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="25">
         <v>19.55</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="25">
         <v>22.79</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="25">
         <v>20.6</v>
       </c>
-      <c r="G4" s="35">
+      <c r="G4" s="31">
         <v>22.48</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="25">
         <v>23.07</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="25">
         <v>19.55</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="25">
         <v>22.79</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="25">
         <v>20.6</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="31">
         <v>22.48</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="25">
         <v>318</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="25">
         <v>296</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="25">
         <v>504</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="25">
         <v>303</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="31">
         <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="25">
         <v>13.79</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="25">
         <v>15.14</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="25">
         <v>19.350000000000001</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="25">
         <v>13.07</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="31">
         <v>11.26</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="30">
+      <c r="B8" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="26">
         <v>0.1</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="26">
         <v>0.12</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="26">
         <v>0.14249999999999999</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="26">
         <v>0.125</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="30">
+      <c r="B9" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="26">
         <v>0.15260000000000001</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="26">
         <v>0.03</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="26">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="26">
         <v>6.6E-3</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="27">
         <v>4.2099999999999999E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="30">
+      <c r="B10" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="26">
         <v>0.1114</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="26">
         <v>0.1114</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="26">
         <v>8.1799999999999998E-2</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="26">
         <v>9.8500000000000004E-2</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="27">
         <v>0.1234</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="30">
+      <c r="B11" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="26">
         <v>0.60640000000000005</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="26">
         <v>0.62190000000000001</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="26">
         <v>0.63880000000000003</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="26">
         <v>0.63870000000000005</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="27">
         <v>0.62480000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="30">
+      <c r="B12" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="26">
         <v>7.3200000000000001E-2</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="26">
         <v>7.2800000000000004E-2</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="26">
         <v>5.5399999999999998E-2</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="26">
         <v>6.7299999999999999E-2</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="27">
         <v>8.4900000000000003E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="30">
+      <c r="B13" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="26">
         <v>0.03</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="26">
         <v>2.6800000000000001E-2</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="26">
         <v>2.7300000000000001E-2</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="26">
         <v>2.1600000000000001E-2</v>
       </c>
-      <c r="G13" s="31">
+      <c r="G13" s="27">
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="B14" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="30">
+      <c r="B14" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="26">
         <v>0.217</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="26">
         <v>0.16120000000000001</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="26">
         <v>0.19550000000000001</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="26">
         <v>0.1762</v>
       </c>
-      <c r="G14" s="31">
+      <c r="G14" s="27">
         <v>0.17780000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="B15" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="30">
+      <c r="B15" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="26">
         <v>2.06E-2</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="26">
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="26">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="26">
         <v>1.54E-2</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="27">
         <v>1.6299999999999999E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="B16" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="30">
+      <c r="B16" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="26">
         <v>1.49E-2</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="26">
         <v>1.26E-2</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="26">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="26">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="27">
         <v>1.11E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="B17" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="30">
+      <c r="B17" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="26">
         <v>0.89649999999999996</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="26">
         <v>0.89039999999999997</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="26">
         <v>0.90600000000000003</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="26">
         <v>0.96079999999999999</v>
       </c>
-      <c r="G17" s="31">
+      <c r="G17" s="27">
         <v>0.84940000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="30">
+      <c r="B18" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="26">
         <v>1.84E-2</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="26">
         <v>2.0299999999999999E-2</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="26">
         <v>1.6199999999999999E-2</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="26">
         <v>1.5900000000000001E-2</v>
       </c>
-      <c r="G18" s="31">
+      <c r="G18" s="27">
         <v>1.6E-2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="29"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="B20" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="30">
+      <c r="B20" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="26">
         <v>0.1011</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="26">
         <v>9.2600000000000002E-2</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="26">
         <v>8.5199999999999998E-2</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="26">
         <v>9.0399999999999994E-2</v>
       </c>
-      <c r="G20" s="31">
+      <c r="G20" s="27">
         <v>9.3700000000000006E-2</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="B21" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="30">
+      <c r="B21" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="26">
         <v>0.1011</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="26">
         <v>9.2600000000000002E-2</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E21" s="26">
         <v>8.5199999999999998E-2</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="26">
         <v>9.0399999999999994E-2</v>
       </c>
-      <c r="G21" s="31">
+      <c r="G21" s="27">
         <v>9.3700000000000006E-2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="B22" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="30">
+      <c r="B22" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="26">
         <v>2.5899999999999999E-2</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D22" s="26">
         <v>3.9100000000000003E-2</v>
       </c>
-      <c r="E22" s="30">
+      <c r="E22" s="26">
         <v>4.8399999999999999E-2</v>
       </c>
-      <c r="F22" s="30">
+      <c r="F22" s="26">
         <v>3.9600000000000003E-2</v>
       </c>
-      <c r="G22" s="31">
+      <c r="G22" s="27">
         <v>3.1E-2</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="B23" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="30">
+      <c r="B23" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="26">
         <v>0.127</v>
       </c>
-      <c r="D23" s="30">
+      <c r="D23" s="26">
         <v>0.13170000000000001</v>
       </c>
-      <c r="E23" s="30">
+      <c r="E23" s="26">
         <v>0.1336</v>
       </c>
-      <c r="F23" s="30">
+      <c r="F23" s="26">
         <v>0.13</v>
       </c>
-      <c r="G23" s="31">
+      <c r="G23" s="27">
         <v>0.12470000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="B24" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="30">
+      <c r="B24" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="26">
         <v>4.5600000000000002E-2</v>
       </c>
-      <c r="D24" s="30">
+      <c r="D24" s="26">
         <v>5.0299999999999997E-2</v>
       </c>
-      <c r="E24" s="30">
+      <c r="E24" s="26">
         <v>3.5400000000000001E-2</v>
       </c>
-      <c r="F24" s="30">
+      <c r="F24" s="26">
         <v>3.2300000000000002E-2</v>
       </c>
-      <c r="G24" s="31">
+      <c r="G24" s="27">
         <v>4.0599999999999997E-2</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="B25" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="30">
+      <c r="B25" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="26">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D25" s="30">
+      <c r="D25" s="26">
         <v>1.38E-2</v>
       </c>
-      <c r="E25" s="30">
+      <c r="E25" s="26">
         <v>0.01</v>
       </c>
-      <c r="F25" s="30">
+      <c r="F25" s="26">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="G25" s="31">
+      <c r="G25" s="27">
         <v>2.01E-2</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="B26" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="30">
+      <c r="B26" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="26">
         <v>0.1057</v>
       </c>
-      <c r="D26" s="30">
+      <c r="D26" s="26">
         <v>9.0300000000000005E-2</v>
       </c>
-      <c r="E26" s="30">
+      <c r="E26" s="26">
         <v>7.1599999999999997E-2</v>
       </c>
-      <c r="F26" s="30">
+      <c r="F26" s="26">
         <v>9.4500000000000001E-2</v>
       </c>
-      <c r="G26" s="31">
+      <c r="G26" s="27">
         <v>9.9099999999999994E-2</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="B27" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="30">
+      <c r="B27" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="26">
         <v>3.7199999999999997E-2</v>
       </c>
-      <c r="D27" s="30">
+      <c r="D27" s="26">
         <v>4.8099999999999997E-2</v>
       </c>
-      <c r="E27" s="30">
+      <c r="E27" s="26">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="F27" s="30">
+      <c r="F27" s="26">
         <v>4.3700000000000003E-2</v>
       </c>
-      <c r="G27" s="31">
+      <c r="G27" s="27">
         <v>3.9899999999999998E-2</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="29">
+      <c r="C28" s="25">
         <v>15.03</v>
       </c>
-      <c r="D28" s="29">
+      <c r="D28" s="25">
         <v>16.010000000000002</v>
       </c>
-      <c r="E28" s="29">
+      <c r="E28" s="25">
         <v>20.399999999999999</v>
       </c>
-      <c r="F28" s="29">
+      <c r="F28" s="25">
         <v>21.59</v>
       </c>
-      <c r="G28" s="35">
+      <c r="G28" s="31">
         <v>25.31</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="C29" s="36">
+      <c r="C29" s="32">
         <v>88876045</v>
       </c>
-      <c r="D29" s="36">
+      <c r="D29" s="32">
         <v>97877671</v>
       </c>
-      <c r="E29" s="36">
+      <c r="E29" s="32">
         <v>109622992</v>
       </c>
-      <c r="F29" s="36">
+      <c r="F29" s="32">
         <v>125244268</v>
       </c>
-      <c r="G29" s="37">
+      <c r="G29" s="33">
         <v>140899802</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="C30" s="36">
+      <c r="C30" s="32">
         <v>1645</v>
       </c>
-      <c r="D30" s="36">
+      <c r="D30" s="32">
         <v>1887</v>
       </c>
-      <c r="E30" s="36">
+      <c r="E30" s="32">
         <v>1862</v>
       </c>
-      <c r="F30" s="36">
+      <c r="F30" s="32">
         <v>1893</v>
       </c>
-      <c r="G30" s="37">
+      <c r="G30" s="33">
         <v>1970</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="33"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="29"/>
     </row>
     <row r="32" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="34" t="s">
+      <c r="A32" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="36">
+      <c r="C32" s="32">
         <v>1413</v>
       </c>
-      <c r="D32" s="36">
+      <c r="D32" s="32">
         <v>1462</v>
       </c>
-      <c r="E32" s="36">
+      <c r="E32" s="32">
         <v>1896</v>
       </c>
-      <c r="F32" s="36">
+      <c r="F32" s="32">
         <v>2035</v>
       </c>
-      <c r="G32" s="37">
+      <c r="G32" s="33">
         <v>2147</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="B33" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="30">
+      <c r="B33" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="26">
         <v>0.1159</v>
       </c>
-      <c r="D33" s="30">
+      <c r="D33" s="26">
         <v>0.1255</v>
       </c>
-      <c r="E33" s="30">
+      <c r="E33" s="26">
         <v>0.1308</v>
       </c>
-      <c r="F33" s="30">
+      <c r="F33" s="26">
         <v>0.1159</v>
       </c>
-      <c r="G33" s="31">
+      <c r="G33" s="27">
         <v>9.5399999999999999E-2</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="C34" s="39">
+      <c r="C34" s="35">
         <v>159</v>
       </c>
-      <c r="D34" s="39">
+      <c r="D34" s="35">
         <v>186</v>
       </c>
-      <c r="E34" s="39">
+      <c r="E34" s="35">
         <v>189</v>
       </c>
-      <c r="F34" s="39">
+      <c r="F34" s="35">
         <v>190</v>
       </c>
-      <c r="G34" s="40">
+      <c r="G34" s="36">
         <v>196</v>
       </c>
     </row>
@@ -2266,7 +2266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F3F329-74AA-4348-95E2-3B6B1F5FD9DB}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection sqref="A1:G27"/>
     </sheetView>
   </sheetViews>
@@ -2503,38 +2503,38 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="24">
+      <c r="A11" s="39">
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="37">
         <v>6.4100000000000004E-2</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="37">
         <v>5.0900000000000001E-2</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="37">
         <v>7.1400000000000005E-2</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="37">
         <v>7.1400000000000005E-2</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="37">
         <v>6.8099999999999994E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="25"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
     </row>
     <row r="13" spans="1:7" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
@@ -2675,38 +2675,38 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="66" x14ac:dyDescent="0.3">
-      <c r="A19" s="24">
+      <c r="A19" s="39">
         <v>17</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="37">
         <v>0.13150000000000001</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="37">
         <v>0.1416</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="37">
         <v>0.1416</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="37">
         <v>0.14299999999999999</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="37">
         <v>0.14879999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="25"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
     </row>
     <row r="21" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
@@ -2892,7 +2892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2553772-D5D3-4199-BF20-CE77503AADA5}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection sqref="A1:G31"/>
     </sheetView>
   </sheetViews>
